--- a/data/income_statement/3digits/total/244_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/244_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>244-Manufacture of basic precious and other non-ferrous metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>244-Manufacture of basic precious and other non-ferrous metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8311758.8343</v>
@@ -962,37 +868,42 @@
         <v>17149560.4416</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>18370881.6895</v>
+        <v>18371731.0641</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>21509223.27867</v>
+        <v>21555412.8615</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>22218963.65115</v>
+        <v>23907138.10448</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24767048.72769</v>
+        <v>24863735.75172</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>35696530.94332</v>
+        <v>35696530.94332001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>51314774.32482</v>
+        <v>51322651.75911</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>53100393.16197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>53519128.04852</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>65693842.878</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5658464.21899</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>8026206.28246</v>
+        <v>8026206.282459999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>10811602.57755</v>
@@ -1001,31 +912,36 @@
         <v>11223451.40193</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12127417.7154</v>
+        <v>12128267.09</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14123286.07048</v>
+        <v>14140115.75754</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>14763907.53971</v>
+        <v>15962339.81322</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16359788.50533</v>
+        <v>16438968.66923</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>23429647.4239</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>30340113.71575</v>
+        <v>30347856.01475</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>30026267.33602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30344486.77865</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>37902563.912</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2556782.05277</v>
@@ -1037,37 +953,42 @@
         <v>5600959.16787</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5761181.24656</v>
+        <v>5761181.246560001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>6081845.015310001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7178578.57283</v>
+        <v>7207522.997950001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7323185.16825</v>
+        <v>7779857.585660001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8235656.527950001</v>
+        <v>8252599.56008</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>12011875.95204</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20563120.41578</v>
+        <v>20563254.50826</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>22541955.44741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>22637558.48319</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>27303576.988</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>96512.56254000001</v>
+        <v>96512.56253999998</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>107762.19766</v>
@@ -1082,28 +1003,33 @@
         <v>161618.95879</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>207358.63536</v>
+        <v>207774.10601</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>131870.94319</v>
+        <v>164940.7056</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>171603.69441</v>
+        <v>172167.52241</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>255007.56738</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>411540.19329</v>
+        <v>411541.2361</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>532170.3785399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>537082.78668</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>487701.978</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>178574.73948</v>
@@ -1124,25 +1050,30 @@
         <v>210469.74908</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>257193.02606</v>
+        <v>283225.54669</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>293928.43287</v>
+        <v>294877.23314</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>379375.2230400001</v>
+        <v>379375.22304</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>583067.61787</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>639800.6007900001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>653065.27159</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>636223.671</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>112056.05021</v>
@@ -1151,10 +1082,10 @@
         <v>44347.53212</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>62064.84959999999</v>
+        <v>62064.8496</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>72439.06013</v>
+        <v>72439.06013000001</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>83133.04199</v>
@@ -1163,10 +1094,10 @@
         <v>100461.08372</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>124603.12051</v>
+        <v>139300.25089</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>148589.01587</v>
+        <v>149458.21567</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>201441.38952</v>
@@ -1175,13 +1106,18 @@
         <v>264227.32426</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>318091.55307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>322491.87496</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>359440.53</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>28191.40636</v>
@@ -1193,40 +1129,45 @@
         <v>34898.67681</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>27123.39277</v>
+        <v>27123.39276999999</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>28342.96305</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>36223.59512999999</v>
+        <v>36223.59513</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>45225.07594</v>
+        <v>51584.70385</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>39888.49426</v>
+        <v>39957.03919</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>71865.23654000001</v>
+        <v>71865.23654</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>91020.43641999998</v>
+        <v>91020.43642000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>111245.34775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>113256.79423</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>156002.157</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>38327.28291</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>39313.36113999999</v>
+        <v>39313.36114</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>40632.82279</v>
@@ -1238,13 +1179,13 @@
         <v>43773.04545000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>73785.07022999998</v>
+        <v>73785.07023</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>87364.82960999999</v>
+        <v>92340.59195</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>105450.92274</v>
+        <v>105461.97828</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>106068.59698</v>
@@ -1253,16 +1194,21 @@
         <v>227819.85719</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>210463.69997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>217316.6024</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>120780.984</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>8133184.09482</v>
+        <v>8133184.094819999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>12047333.20066</v>
@@ -1274,34 +1220,39 @@
         <v>17007148.11437</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18215632.63901</v>
+        <v>18216482.01361</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21298753.52959</v>
+        <v>21344943.11242</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>21961770.62509</v>
+        <v>23623912.55779</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24473120.29482</v>
+        <v>24568858.51858</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>35317155.72028</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>50731706.70695</v>
+        <v>50739584.14124</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>52460592.56118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>52866062.77693</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>65057619.207</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7170365.892800001</v>
+        <v>7170365.8928</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>10981810.03634</v>
@@ -1313,31 +1264,36 @@
         <v>15384641.54298</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16143739.57426</v>
+        <v>16144502.60923</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19151648.67544</v>
+        <v>19198495.27429</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>19346397.06182</v>
+        <v>20766262.27613</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>21541569.12674</v>
+        <v>21634353.19107</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>30772634.95037</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>43421018.62778</v>
+        <v>43428329.1308</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>46156280.95874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>46513755.39666</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>56047118.572</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6192096.20114</v>
@@ -1355,31 +1311,36 @@
         <v>14785272.02874</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>17420597.51596</v>
+        <v>17466960.41996</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>17579870.42182</v>
+        <v>18922281.58128</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>19422024.97501</v>
+        <v>19507561.39126</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>28117257.57686</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>39485059.9615</v>
+        <v>39485897.52209</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>42539246.8688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>42728890.74383999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>51225569.512</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>871200.42659</v>
+        <v>871200.4265899999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1271337.08119</v>
@@ -1391,31 +1352,36 @@
         <v>1329258.72588</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1061311.76051</v>
+        <v>1062074.79548</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1337948.52237</v>
+        <v>1338432.21722</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1468008.56599</v>
+        <v>1516876.81813</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1698484.26006</v>
+        <v>1705982.55426</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2131609.53938</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3264839.34275</v>
+        <v>3271052.73177</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2956937.32818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3118652.04584</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4030227.975</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>54092.59190000001</v>
@@ -1436,7 +1402,7 @@
         <v>290764.37093</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>231405.402</v>
+        <v>258769.54163</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>315195.25937</v>
@@ -1445,25 +1411,30 @@
         <v>383867.91343</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>458206.91832</v>
+        <v>458466.47173</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>378892.4343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>385008.27952</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>424483.801</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>52976.67316999999</v>
+        <v>52976.67317</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>37249.58984</v>
+        <v>37249.58983999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>49202.46077</v>
+        <v>49202.46077000001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>73980.82772</v>
@@ -1475,10 +1446,10 @@
         <v>102338.26618</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>67112.67201000001</v>
+        <v>68334.33509000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>105864.6323</v>
+        <v>105613.98618</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>139899.9207</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>281204.3274600001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>366837.284</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>962818.20202</v>
@@ -1508,31 +1484,36 @@
         <v>1622506.57139</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2071893.06475</v>
+        <v>2071979.40438</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2147104.85415</v>
+        <v>2146447.83813</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2615373.56327</v>
+        <v>2857650.28166</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2931551.16808</v>
+        <v>2934505.32751</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4544520.76991</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7310688.07917</v>
+        <v>7311255.010439999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6304311.602439999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6352307.38027</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9010500.635</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>437356.11326</v>
@@ -1547,31 +1528,36 @@
         <v>740903.24977</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>849343.54579</v>
+        <v>849419.07845</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>981268.8180600001</v>
+        <v>988585.46031</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1016652.20745</v>
+        <v>1113628.74979</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1264070.90537</v>
+        <v>1267836.95005</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1551121.0017</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2148323.56063</v>
+        <v>2150527.08615</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2422318.49977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2436218.33613</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2738388.642</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>9102.450919999999</v>
@@ -1589,10 +1575,10 @@
         <v>7032.920279999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6729.758910000001</v>
+        <v>6737.36258</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8513.47788</v>
+        <v>11261.59821</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>12383.88486</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>31070.79086</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>43368.815</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>170597.74464</v>
@@ -1625,31 +1616,36 @@
         <v>318359.64203</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>386491.75943</v>
+        <v>386567.29209</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>452164.92079</v>
+        <v>456483.74795</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>435172.33922</v>
+        <v>487434.85383</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>564280.58928</v>
+        <v>564573.12055</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>680843.7487900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1037024.67674</v>
+        <v>1037047.3753</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1217960.91056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1222415.19819</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1385145.791</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>257655.9177</v>
@@ -1664,31 +1660,36 @@
         <v>406125.34244</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>455818.86608</v>
+        <v>455818.8660800001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>522374.13836</v>
+        <v>525364.3497799999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>572966.3903500001</v>
+        <v>614932.29775</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>687406.43123</v>
+        <v>690879.94464</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>855499.7774699999</v>
+        <v>855499.77747</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1088606.74861</v>
+        <v>1090787.57557</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1173286.79835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1182732.34708</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1309874.036</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>525462.08876</v>
@@ -1700,43 +1701,48 @@
         <v>1032114.07867</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>881603.3216200002</v>
+        <v>881603.3216200001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1222549.51896</v>
+        <v>1222560.32593</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1165836.03609</v>
+        <v>1157862.37782</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1598721.35582</v>
+        <v>1744021.53187</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1667480.26271</v>
+        <v>1666668.37746</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2993399.76821</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5162364.518539999</v>
+        <v>5160727.92429</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3881993.10267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3916089.04414</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6272111.993</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>576880.7359000001</v>
+        <v>576880.7359</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>482799.35246</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>695197.20285</v>
+        <v>695197.2028499999</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>707543.14564</v>
@@ -1745,28 +1751,33 @@
         <v>837274.24768</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1188874.67085</v>
+        <v>1189223.55375</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1449622.4803</v>
+        <v>1742623.78567</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1827027.01812</v>
+        <v>1828200.58538</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2795385.97062</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>10963505.76495</v>
+        <v>10964344.92062</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7381505.82654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7385322.592780001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12018224.802</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>116818.07733</v>
@@ -1787,7 +1798,7 @@
         <v>1486.02389</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8758.45138</v>
+        <v>9952.562679999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>13547.66479</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>11373.77191</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1365.237</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1961.88158</v>
@@ -1826,7 +1842,7 @@
         <v>5174.595729999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3855.73694</v>
+        <v>8067.65049</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>7472.24294</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>10216.87844</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2504.08</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>46614.97068999999</v>
@@ -1862,13 +1883,13 @@
         <v>66418.63927</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>68264.65729999999</v>
+        <v>68270.54469</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>61567.322</v>
+        <v>78586.79562999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>81792.93362</v>
+        <v>81856.01984000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>101796.05509</v>
@@ -1877,13 +1898,18 @@
         <v>164083.50673</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>171263.54645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>172134.20947</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>146788.902</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>400.96008</v>
@@ -1898,7 +1924,7 @@
         <v>1110.80979</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>590.59342</v>
+        <v>590.5934199999999</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>482.94863</v>
@@ -1916,19 +1942,24 @@
         <v>4207.253320000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>505.2266700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>505.22667</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>425.668</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7215.09696</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7001.309279999999</v>
+        <v>7001.30928</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1545.85352</v>
@@ -1937,16 +1968,16 @@
         <v>3200.51313</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2136.788340000001</v>
+        <v>2136.78834</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>6096.33092</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>17767.35281</v>
+        <v>18481.21281</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>30404.06537</v>
+        <v>30416.7533</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>4156.08891</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>7582.71393</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>10525.13</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>20457.67715</v>
@@ -1970,7 +2006,7 @@
         <v>25590.14819</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>40050.8895</v>
+        <v>40050.88949999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>28993.86533</v>
@@ -1979,10 +2015,10 @@
         <v>11558.45486</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>46195.00247000001</v>
+        <v>46195.00247</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>31526.99823</v>
+        <v>31549.67385</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>59423.81818000001</v>
@@ -1994,16 +2030,21 @@
         <v>102808.08224</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>107222.32563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>107335.02505</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>134894.436</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>354634.1191399999</v>
+        <v>354634.11914</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>365716.37995</v>
@@ -2018,34 +2059,39 @@
         <v>650525.29076</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>924973.71996</v>
+        <v>925316.7154700001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1175825.67899</v>
+        <v>1440879.00424</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1467946.89295</v>
+        <v>1468460.89872</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2256537.91542</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10075869.99208</v>
+        <v>10076124.63774</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6658746.854509999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6661531.44189</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11495776.737</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>812.1998500000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>921.1238300000001</v>
+        <v>921.12383</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>1105.03963</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>208534.72177</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>19254.797</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2641.32588</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25324.42724</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>46800.74392999999</v>
+        <v>46800.74393</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>51197.24903</v>
@@ -2138,64 +2194,74 @@
         <v>119889.0757</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>143843.60005</v>
+        <v>148629.54607</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>153924.76111</v>
+        <v>154508.54845</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>227168.91543</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>314283.59484</v>
+        <v>314868.10485</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>206059.78723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>206108.60365</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>206689.815</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>437660.73497</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>425902.86348</v>
+        <v>425902.8634799999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>950055.71085</v>
+        <v>950055.7108499999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>490163.42254</v>
+        <v>490163.4225399999</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>1063444.52008</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1062621.96431</v>
+        <v>1066672.5405</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1589920.97707</v>
+        <v>1877741.85663</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1750960.8071</v>
+        <v>1751598.10412</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>2716431.15559</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11927974.6247</v>
+        <v>11929861.77582</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7435449.29129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7445316.91288</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12561373.989</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1562.99661</v>
@@ -2213,10 +2279,10 @@
         <v>2711.17734</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3201.679569999999</v>
+        <v>3201.67957</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3356.242479999999</v>
+        <v>3356.24248</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>7762.46734</v>
@@ -2225,16 +2291,21 @@
         <v>5949.255050000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7660.81753</v>
+        <v>7660.817529999999</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>82133.46405</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>18668.143</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>18396.76025</v>
@@ -2255,7 +2326,7 @@
         <v>64423.36326999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>68263.77554</v>
+        <v>75440.25117999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>34912.74573</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>79244.57950000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>88101.75599999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>60659.52585</v>
@@ -2282,13 +2358,13 @@
         <v>13263.23517</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>37008.86570999999</v>
+        <v>37008.86571</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>26477.67295</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>33549.45959999999</v>
+        <v>33549.4596</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>14037.84903</v>
@@ -2306,13 +2382,18 @@
         <v>96621.09649</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>74526.34812000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>74527.54812000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>129184.908</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>333177.47313</v>
@@ -2321,7 +2402,7 @@
         <v>360316.9181</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>851500.2347</v>
+        <v>851500.2346999999</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>405059.10769</v>
@@ -2330,28 +2411,33 @@
         <v>906133.54813</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>874701.19574</v>
+        <v>878751.77193</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1370843.9112</v>
+        <v>1647609.61924</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1574242.96874</v>
+        <v>1574815.85144</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2421133.2287</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10532649.35235</v>
+        <v>10533075.56441</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6214162.260139999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6222520.886160001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12214704.647</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>679.80797</v>
@@ -2372,7 +2458,7 @@
         <v>19320.66977</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>7136.96052</v>
+        <v>9225.599179999999</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>15077.63327</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>205037.37216</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>32269.047</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.872190000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>23179.29897</v>
@@ -2438,37 +2534,42 @@
         <v>37683.13175</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>46470.69029</v>
+        <v>46470.69029000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>26125.13013</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>65514.96827999999</v>
+        <v>65514.96828</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>86935.19981999999</v>
+        <v>86935.19982000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>57952.6617</v>
+        <v>59742.71892</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>79676.12175999999</v>
+        <v>79740.53608000002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>153851.13552</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>907696.7646</v>
+        <v>909157.7036600001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>780345.2673200001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>781853.0628899999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>78445.436</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>265167.22968</v>
@@ -2486,28 +2587,33 @@
         <v>518697.07078</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>561364.0602300001</v>
+        <v>562785.27014</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>715176.64666</v>
+        <v>875678.68745</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>903962.05762</v>
+        <v>905664.5949</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1327590.82099</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2560490.88099</v>
+        <v>2560522.07389</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2437636.85094</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2450117.22605</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2440004.758</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>249299.83785</v>
@@ -2522,31 +2628,36 @@
         <v>280308.94271</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>453210.6026399999</v>
+        <v>453210.60264</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>497796.18975</v>
+        <v>499217.39966</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>634788.11514</v>
+        <v>766809.2163599998</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>800316.7820199999</v>
+        <v>802019.3193</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1152739.02264</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2089485.58215</v>
+        <v>2089516.77505</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2267319.03002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2279796.1825</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2036498.902</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15867.39183</v>
@@ -2567,7 +2678,7 @@
         <v>63567.87048</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>80388.53152</v>
+        <v>108869.47109</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>103645.2756</v>
@@ -2576,55 +2687,65 @@
         <v>174851.79835</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>471005.2988400001</v>
+        <v>471005.2988399999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>170317.8209200001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>170321.04355</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>403505.856</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>399514.86001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>358136.97767</v>
+        <v>358136.9776699999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>319687.30631</v>
+        <v>319687.3063100001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>739290.1621800001</v>
+        <v>739290.16218</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>477682.17578</v>
+        <v>477692.98275</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>730724.6824</v>
+        <v>717628.12093</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>743246.21239</v>
+        <v>733224.7734599999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>839584.41611</v>
+        <v>837606.2638199999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1744763.76225</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1637404.7778</v>
+        <v>1634688.9952</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1390412.78698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1405977.49799</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3288958.048</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>104822.54704</v>
@@ -2636,37 +2757,42 @@
         <v>123747.75948</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>65479.0112</v>
+        <v>65479.01119999999</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>128150.68053</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>122474.82515</v>
+        <v>122502.27064</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>151330.72419</v>
+        <v>163644.94612</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>262670.4757</v>
+        <v>263146.79264</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>224228.50054</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>206891.09713</v>
+        <v>212222.74655</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>361226.9967000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>361713.72398</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>368673.008</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>776.72347</v>
+        <v>776.7234700000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>527.86222</v>
@@ -2684,7 +2810,7 @@
         <v>3490.90804</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>28398.12904</v>
+        <v>28399.55353</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2503.57587</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>7434.02346</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>22307.501</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>104045.82357</v>
@@ -2720,34 +2851,39 @@
         <v>107314.33401</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>118983.91711</v>
+        <v>119011.3626</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>122932.59515</v>
+        <v>135245.39259</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>260166.89983</v>
+        <v>260643.21677</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>222604.48574</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>203930.07955</v>
+        <v>209261.72897</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>353792.97324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>354279.70052</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>346365.507</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>82960.67283000001</v>
+        <v>82960.67283</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>55061.05768999999</v>
+        <v>55061.05769</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>193209.96915</v>
@@ -2759,28 +2895,33 @@
         <v>72530.86757999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>135825.86414</v>
+        <v>135901.46606</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>137470.28422</v>
+        <v>143325.15605</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>365849.13818</v>
+        <v>365927.0021899999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>140276.53394</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>274320.3310900001</v>
+        <v>299286.89137</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>210190.95189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>214822.94508</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>185738.144</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>26917.53228</v>
@@ -2801,7 +2942,7 @@
         <v>23352.85677</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>36565.25483000001</v>
+        <v>37128.37323999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>38870.79607</v>
@@ -2810,16 +2951,21 @@
         <v>54638.09479</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>67099.29999000001</v>
+        <v>67099.37099</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>41826.38117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>41827.20217</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>39925.525</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3603.45273</v>
@@ -2828,10 +2974,10 @@
         <v>3013.05252</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8701.184760000002</v>
+        <v>8701.18476</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4729.08398</v>
+        <v>4729.083979999999</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>4398.38337</v>
@@ -2840,25 +2986,30 @@
         <v>2770.97355</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>26433.02394</v>
+        <v>26435.36545</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5404.128539999999</v>
+        <v>5404.204539999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4714.31015</v>
+        <v>4714.310149999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3355.325399999999</v>
+        <v>3355.3254</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>9776.098430000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>9287.085999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>52439.68782</v>
@@ -2870,73 +3021,83 @@
         <v>156232.63487</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>87338.60931999999</v>
+        <v>87338.60932</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>43851.18475</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>109702.03382</v>
+        <v>109777.63574</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>74472.00545</v>
+        <v>79761.41735999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>321574.2135700001</v>
+        <v>321652.00158</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>80924.12899999999</v>
+        <v>80924.129</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>203865.7057</v>
+        <v>228832.19498</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>158588.47229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>163219.64448</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>136525.533</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>421376.73422</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>352783.6366099999</v>
+        <v>352783.63661</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>250225.09664</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>689547.9116199999</v>
+        <v>689547.9116200001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>533301.98873</v>
+        <v>533312.7957</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>717373.64341</v>
+        <v>704228.92551</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>757106.6523600001</v>
+        <v>753544.5635299999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>736405.7536299999</v>
+        <v>734826.05427</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1828715.72885</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1569975.54384</v>
+        <v>1547624.85038</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1541448.83179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1552868.27689</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3471892.912</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>45300.4172</v>
@@ -2945,37 +3106,42 @@
         <v>66961.5984</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>84202.20401</v>
+        <v>84202.20400999999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>152629.43882</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>92382.99017000002</v>
+        <v>92385.15156</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>138209.35048</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>117852.10519</v>
+        <v>119471.94139</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>129836.19754</v>
+        <v>129918.01977</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>205446.8365</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>340951.17694</v>
+        <v>340953.29467</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>272683.7764799999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>272765.17008</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>460249.401</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>376076.31702</v>
@@ -2987,31 +3153,34 @@
         <v>166022.89263</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>536918.4728000001</v>
+        <v>536918.4728</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>440918.9985599999</v>
+        <v>440927.64414</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>579164.29293</v>
+        <v>566019.5750299999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>639254.5471699999</v>
+        <v>634072.62214</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>606569.5560900001</v>
+        <v>604908.0345</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1623268.89235</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1229024.3669</v>
+        <v>1206671.55571</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1268765.05531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1280103.10681</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3011643.511</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>889</v>
@@ -3044,28 +3216,31 @@
         <v>777</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>882</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>834</v>
+        <v>927</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>951</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>